--- a/nueva_bobina.xlsx
+++ b/nueva_bobina.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K65"/>
+  <dimension ref="A1:K72"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4040,6 +4040,395 @@
         </is>
       </c>
     </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>c</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>we</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>ewr</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>er</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>er</t>
+        </is>
+      </c>
+      <c r="F66" t="n">
+        <v>1</v>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>re</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>2025-01-08 13:48</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>ONDA LINER</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="F67" t="n">
+        <v>1</v>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>2025-01-09 14:20</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>COVERING</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>2025-01-09 14:20</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>COVERING</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>344</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>444</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>333</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>4443</t>
+        </is>
+      </c>
+      <c r="F69" t="n">
+        <v>1</v>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>4434</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>2025-01-09 14:21</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>COVERING</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="F70" t="n">
+        <v>1</v>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>2025-01-09 14:23</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>COVERING</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>231</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>321</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>321</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>312</t>
+        </is>
+      </c>
+      <c r="F71" t="n">
+        <v>1</v>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>321</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>2025-01-09 14:28</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>COVERING</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>231</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>321</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>321</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>312</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>321</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>2025-01-09 14:28</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>COVERING</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
